--- a/data/TTC Station Coordinates.xlsx
+++ b/data/TTC Station Coordinates.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Project1\TTC_Subway_Delay_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_327B609A552F63DE53B150A3475DFE83EF834DE7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E3440AD-C57B-4BF5-94A7-23685B6E95A4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -278,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -456,15 +465,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C80" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C80"/>
-  <sortState ref="A2:C79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C80" totalsRowShown="0" dataDxfId="3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C79">
     <sortCondition ref="A1:A79"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="STATION" dataDxfId="3"/>
-    <tableColumn id="2" name="LAT" dataDxfId="2"/>
-    <tableColumn id="3" name="LONG" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STATION" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LAT" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LONG" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -732,28 +740,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -764,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -775,7 +783,7 @@
         <v>-79.244</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -786,7 +794,7 @@
         <v>-79.232399999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -797,7 +805,7 @@
         <v>-79.231200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -808,7 +816,7 @@
         <v>-79.223500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -819,7 +827,7 @@
         <v>-79.386499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -830,7 +838,7 @@
         <v>-79.230900000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -841,7 +849,7 @@
         <v>-79.212999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -852,7 +860,7 @@
         <v>-79.220799999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -863,7 +871,7 @@
         <v>-79.210899999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -874,7 +882,7 @@
         <v>-79.250600000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -885,7 +893,7 @@
         <v>-79.225899999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -896,7 +904,7 @@
         <v>-79.192300000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -907,7 +915,7 @@
         <v>-79.234999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -918,7 +926,7 @@
         <v>-79.345399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
@@ -929,7 +937,7 @@
         <v>-79.201599999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
@@ -940,7 +948,7 @@
         <v>-79.284199999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
@@ -951,7 +959,7 @@
         <v>-79.260800000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
@@ -962,7 +970,7 @@
         <v>-79.380499999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -973,7 +981,7 @@
         <v>-79.271050000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
@@ -984,7 +992,7 @@
         <v>-79.242500000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>-79.235399999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1014,7 @@
         <v>-79.260900000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>-79.163499999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1036,7 @@
         <v>-79.415000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>-79.2453</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
@@ -1050,7 +1058,7 @@
         <v>79.262699999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
@@ -1061,7 +1069,7 @@
         <v>-79.194900000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
@@ -1072,7 +1080,7 @@
         <v>-79.28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>-79.313900000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>-79.312799999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>-79.290199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
@@ -1116,7 +1124,7 @@
         <v>-79.273499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>36</v>
       </c>
@@ -1127,7 +1135,7 @@
         <v>-79.154899999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
@@ -1138,7 +1146,7 @@
         <v>-79.263599999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>38</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>-79.224000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>-79.320999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>40</v>
       </c>
@@ -1171,7 +1179,7 @@
         <v>-79.263400000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>42</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>-79.248000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>41</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>-79.161299999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>43</v>
       </c>
@@ -1204,7 +1212,7 @@
         <v>-79.263900000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>44</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>-79.215500000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>45</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>-79.180599999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>46</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>-79.150599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>47</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>-79.161900000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>48</v>
       </c>
@@ -1259,7 +1267,7 @@
         <v>-79.233699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>49</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>-79.411100000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>50</v>
       </c>
@@ -1281,7 +1289,7 @@
         <v>-79.2941</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>51</v>
       </c>
@@ -1292,7 +1300,7 @@
         <v>-79.231200000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>52</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>-79.253600000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>53</v>
       </c>
@@ -1314,7 +1322,7 @@
         <v>-79.2042</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>54</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>-79.303399999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>-79.224500000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>56</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>-79.232600000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>57</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>-79.231999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>58</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>-79.304100000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>59</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>-79.283299999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>60</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>-79.152799999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>61</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>-79.4619</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="27" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>62</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>-79.411900000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>-79.223500000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>-79.241399999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>65</v>
       </c>
@@ -1446,7 +1454,7 @@
         <v>-79.241399999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>66</v>
       </c>
@@ -1457,7 +1465,7 @@
         <v>-79.384799999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>67</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>-79.233500000000006</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>68</v>
       </c>
@@ -1479,7 +1487,7 @@
         <v>-79.233500000000006</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>-79.399900000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>70</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>-79.235900000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>71</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>-79.231800000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>72</v>
       </c>
@@ -1523,7 +1531,7 @@
         <v>-79.232699999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>73</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>-79.380600000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>74</v>
       </c>
@@ -1545,7 +1553,7 @@
         <v>-79.313900000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>75</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>-79.171899999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>76</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>-79.164699999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>77</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>-79.230199999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>78</v>
       </c>
@@ -1589,7 +1597,7 @@
         <v>-79.27</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>79</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>-79.184600000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>80</v>
       </c>
@@ -1611,7 +1619,7 @@
         <v>-79.406700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>81</v>
       </c>
@@ -1622,7 +1630,7 @@
         <v>-79.499799999999993</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>82</v>
       </c>
